--- a/spliced/struggle/2023-03-25_18-16-13/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-13/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.463741660118103</v>
+        <v>4.229360163211825</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.567769646644592</v>
+        <v>-4.647700071334836</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7349072918295859</v>
+        <v>-1.350979804992678</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.227857589721681</v>
+        <v>4.624738931655887</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.45130252838135</v>
+        <v>-3.006192684173583</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6229552030563402</v>
+        <v>-2.288825809955597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.557104468345643</v>
+        <v>-6.357042789459214</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.735224962234499</v>
+        <v>-8.575422286987301</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.945761188864711</v>
+        <v>0.2564473152160626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.07694971561431618</v>
+        <v>0.5462948679924189</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.776806116104124</v>
+        <v>-6.825089752674098</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.112441301345825</v>
+        <v>-0.5449948012828849</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.008981227874761</v>
+        <v>0.9978208541870109</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.772850394248962</v>
+        <v>-3.706368923187252</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.162768602371206</v>
+        <v>-1.51154860854149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.495481491088865</v>
+        <v>0.2441467046737658</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.245253562927249</v>
+        <v>-3.069634318351747</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.038550376892101</v>
+        <v>-2.925750926136973</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7850135862827323</v>
+        <v>1.612907171249393</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.086958646774292</v>
+        <v>-4.853008508682255</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.590162277221678</v>
+        <v>-1.383459806442257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.229360163211825</v>
+        <v>-1.189411103725463</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.647700071334836</v>
+        <v>-6.66196793317795</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.350979804992678</v>
+        <v>2.149218022823342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.624738931655887</v>
+        <v>-6.306459784507723</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.006192684173583</v>
+        <v>-6.704558491706845</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.288825809955597</v>
+        <v>4.024554014205929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.357042789459214</v>
+        <v>1.663261890411397</v>
       </c>
       <c r="B11" t="n">
-        <v>-8.575422286987301</v>
+        <v>-5.016231019049863</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2564473152160626</v>
+        <v>3.32933139801026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5462948679924189</v>
+        <v>6.837078571319559</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.825089752674098</v>
+        <v>0.09169325232505482</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5449948012828849</v>
+        <v>5.010437965393057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9978208541870109</v>
+        <v>2.122651159763334</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.706368923187252</v>
+        <v>-0.6034613586962226</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.51154860854149</v>
+        <v>2.880795598030089</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2441467046737658</v>
+        <v>-0.7601926326751736</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.069634318351747</v>
+        <v>2.327319413423542</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.925750926136973</v>
+        <v>5.726811170578007</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.612907171249393</v>
+        <v>4.228423535823836</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.853008508682255</v>
+        <v>-2.42055988311769</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.383459806442257</v>
+        <v>5.180934607982632</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.189411103725463</v>
+        <v>2.933720350265484</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.66196793317795</v>
+        <v>-5.437817335128782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.149218022823342</v>
+        <v>5.24878549575806</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.306459784507723</v>
+        <v>-2.91136687994004</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.704558491706845</v>
+        <v>-3.510188579559316</v>
       </c>
       <c r="C17" t="n">
-        <v>4.024554014205929</v>
+        <v>5.247701197862618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.663261890411397</v>
+        <v>-4.280053377151489</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.016231019049863</v>
+        <v>-0.6633338928222658</v>
       </c>
       <c r="C18" t="n">
-        <v>3.32933139801026</v>
+        <v>4.682214915752411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.837078571319559</v>
+        <v>-2.581492483615869</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09169325232505482</v>
+        <v>0.5014263689517995</v>
       </c>
       <c r="C19" t="n">
-        <v>5.010437965393057</v>
+        <v>6.192452192306466</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.122651159763334</v>
+        <v>-0.986172676086416</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6034613586962226</v>
+        <v>1.025731801986666</v>
       </c>
       <c r="C20" t="n">
-        <v>2.880795598030089</v>
+        <v>-7.288565635681123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.7601926326751736</v>
+        <v>1.218793094158184</v>
       </c>
       <c r="B21" t="n">
-        <v>2.327319413423542</v>
+        <v>-5.294871598482164</v>
       </c>
       <c r="C21" t="n">
-        <v>5.726811170578007</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>4.228423535823836</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.42055988311769</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.180934607982632</v>
+        <v>-0.7042694091796555</v>
       </c>
     </row>
   </sheetData>
